--- a/Input_Excel/25_03_012.xlsx
+++ b/Input_Excel/25_03_012.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tatatechnologies.sharepoint.com/sites/MBSE_Team-SAARCONN/Shared Documents/SAARCONN/Eliminating_SystemDesk/tests/Harshit_arelements_validation_24_03/COMBINED_AUTOMATION/Input_Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{07863FEA-0304-482B-B598-8A862C458218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F52200C-B16F-4E27-9ADB-AB983EA5C49A}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{07863FEA-0304-482B-B598-8A862C458218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6DDD74F-1BE0-4554-BD0B-897ECBC9E539}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="897" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="897" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="project_info" sheetId="2" r:id="rId1"/>
@@ -2110,6 +2110,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2128,17 +2137,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3454,8 +3454,8 @@
   </sheetPr>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3686,10 +3686,10 @@
         <v>324</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>67</v>
+        <v>406</v>
       </c>
       <c r="E8" s="37">
-        <v>129</v>
+        <v>256</v>
       </c>
       <c r="F8" s="26" t="s">
         <v>31</v>
@@ -4574,17 +4574,17 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F21:F23"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="C2:C6"/>
     <mergeCell ref="D2:D6"/>
@@ -4593,17 +4593,17 @@
     <mergeCell ref="C8:C12"/>
     <mergeCell ref="D8:D12"/>
     <mergeCell ref="E8:E12"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="E19:E23"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="C2:C1048">
@@ -4686,7 +4686,7 @@
   </sheetPr>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
@@ -4825,7 +4825,7 @@
       <c r="A4" s="60">
         <v>3</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="63" t="s">
         <v>393</v>
       </c>
       <c r="C4" s="60" t="s">
@@ -4846,25 +4846,25 @@
       <c r="H4" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="67" t="s">
+      <c r="I4" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="J4" s="67" t="s">
+      <c r="J4" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="K4" s="67">
+      <c r="K4" s="63">
         <v>0</v>
       </c>
-      <c r="L4" s="67">
+      <c r="L4" s="63">
         <v>96</v>
       </c>
-      <c r="M4" s="61" t="s">
+      <c r="M4" s="64" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="60"/>
-      <c r="B5" s="67"/>
+      <c r="B5" s="63"/>
       <c r="C5" s="60"/>
       <c r="D5" s="60"/>
       <c r="E5" s="60"/>
@@ -4875,23 +4875,23 @@
         <v>452</v>
       </c>
       <c r="H5" s="60"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="66"/>
     </row>
     <row r="6" spans="1:13" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="64">
+      <c r="A6" s="67">
         <v>4</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="63" t="s">
         <v>77</v>
       </c>
       <c r="C6" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="70" t="s">
         <v>78</v>
       </c>
       <c r="E6" s="60" t="s">
@@ -4906,25 +4906,25 @@
       <c r="H6" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="I6" s="70" t="s">
+      <c r="I6" s="62" t="s">
         <v>79</v>
       </c>
       <c r="J6" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="K6" s="69">
+      <c r="K6" s="61">
         <v>0</v>
       </c>
-      <c r="L6" s="69">
+      <c r="L6" s="61">
         <v>7</v>
       </c>
-      <c r="M6" s="61" t="s">
+      <c r="M6" s="64" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="65"/>
-      <c r="B7" s="67"/>
+      <c r="A7" s="68"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="60"/>
       <c r="D7" s="60"/>
       <c r="E7" s="60"/>
@@ -4935,15 +4935,15 @@
         <v>81</v>
       </c>
       <c r="H7" s="60"/>
-      <c r="I7" s="67"/>
+      <c r="I7" s="63"/>
       <c r="J7" s="60"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="62"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="65"/>
     </row>
     <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="65"/>
-      <c r="B8" s="67"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="63"/>
       <c r="C8" s="60"/>
       <c r="D8" s="60"/>
       <c r="E8" s="60"/>
@@ -4954,15 +4954,15 @@
         <v>455</v>
       </c>
       <c r="H8" s="60"/>
-      <c r="I8" s="67"/>
+      <c r="I8" s="63"/>
       <c r="J8" s="60"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="62"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="65"/>
     </row>
     <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="65"/>
-      <c r="B9" s="67"/>
+      <c r="A9" s="68"/>
+      <c r="B9" s="63"/>
       <c r="C9" s="60"/>
       <c r="D9" s="60"/>
       <c r="E9" s="60"/>
@@ -4973,15 +4973,15 @@
         <v>456</v>
       </c>
       <c r="H9" s="60"/>
-      <c r="I9" s="67"/>
+      <c r="I9" s="63"/>
       <c r="J9" s="60"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="62"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="65"/>
     </row>
     <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="65"/>
-      <c r="B10" s="67"/>
+      <c r="A10" s="68"/>
+      <c r="B10" s="63"/>
       <c r="C10" s="60"/>
       <c r="D10" s="60"/>
       <c r="E10" s="60"/>
@@ -4992,15 +4992,15 @@
         <v>82</v>
       </c>
       <c r="H10" s="60"/>
-      <c r="I10" s="67"/>
+      <c r="I10" s="63"/>
       <c r="J10" s="60"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="62"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="65"/>
     </row>
     <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="65"/>
-      <c r="B11" s="67"/>
+      <c r="A11" s="68"/>
+      <c r="B11" s="63"/>
       <c r="C11" s="60"/>
       <c r="D11" s="60"/>
       <c r="E11" s="60"/>
@@ -5011,15 +5011,15 @@
         <v>83</v>
       </c>
       <c r="H11" s="60"/>
-      <c r="I11" s="67"/>
+      <c r="I11" s="63"/>
       <c r="J11" s="60"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="62"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="65"/>
     </row>
     <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="65"/>
-      <c r="B12" s="67"/>
+      <c r="A12" s="68"/>
+      <c r="B12" s="63"/>
       <c r="C12" s="60"/>
       <c r="D12" s="60"/>
       <c r="E12" s="60"/>
@@ -5030,15 +5030,15 @@
         <v>457</v>
       </c>
       <c r="H12" s="60"/>
-      <c r="I12" s="67"/>
+      <c r="I12" s="63"/>
       <c r="J12" s="60"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="62"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="65"/>
     </row>
     <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="66"/>
-      <c r="B13" s="67"/>
+      <c r="A13" s="69"/>
+      <c r="B13" s="63"/>
       <c r="C13" s="60"/>
       <c r="D13" s="60"/>
       <c r="E13" s="60"/>
@@ -5049,20 +5049,14 @@
         <v>84</v>
       </c>
       <c r="H13" s="60"/>
-      <c r="I13" s="67"/>
+      <c r="I13" s="63"/>
       <c r="J13" s="60"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="63"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C6:C13"/>
-    <mergeCell ref="H6:H13"/>
-    <mergeCell ref="J6:J13"/>
-    <mergeCell ref="K6:K13"/>
-    <mergeCell ref="L6:L13"/>
-    <mergeCell ref="I6:I13"/>
     <mergeCell ref="M6:M13"/>
     <mergeCell ref="A6:A13"/>
     <mergeCell ref="M4:M5"/>
@@ -5079,6 +5073,12 @@
     <mergeCell ref="B6:B13"/>
     <mergeCell ref="D6:D13"/>
     <mergeCell ref="E6:E13"/>
+    <mergeCell ref="C6:C13"/>
+    <mergeCell ref="H6:H13"/>
+    <mergeCell ref="J6:J13"/>
+    <mergeCell ref="K6:K13"/>
+    <mergeCell ref="L6:L13"/>
+    <mergeCell ref="I6:I13"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="B2:B1048">
@@ -5175,7 +5175,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5213,13 +5213,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="64">
+      <c r="A2" s="67">
         <v>1</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="67" t="s">
         <v>380</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="67" t="s">
         <v>386</v>
       </c>
       <c r="D2" s="26" t="s">
@@ -5231,29 +5231,29 @@
       <c r="F2" s="30" t="s">
         <v>329</v>
       </c>
-      <c r="G2" s="64" t="s">
+      <c r="G2" s="67" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
       <c r="D3" s="26" t="s">
         <v>388</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F3" s="30" t="s">
         <v>406</v>
       </c>
-      <c r="G3" s="65"/>
+      <c r="G3" s="68"/>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="65"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
       <c r="D4" s="26" t="s">
         <v>389</v>
       </c>
@@ -5263,12 +5263,12 @@
       <c r="F4" s="30" t="s">
         <v>391</v>
       </c>
-      <c r="G4" s="65"/>
+      <c r="G4" s="68"/>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="66"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
       <c r="D5" s="26" t="s">
         <v>390</v>
       </c>
@@ -5278,7 +5278,7 @@
       <c r="F5" s="30" t="s">
         <v>329</v>
       </c>
-      <c r="G5" s="66"/>
+      <c r="G5" s="69"/>
     </row>
     <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="26">
@@ -5327,13 +5327,13 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="64">
+      <c r="A8" s="67">
         <v>4</v>
       </c>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="67" t="s">
         <v>380</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="67" t="s">
         <v>406</v>
       </c>
       <c r="D8" s="26" t="s">
@@ -5345,14 +5345,14 @@
       <c r="F8" s="30" t="s">
         <v>329</v>
       </c>
-      <c r="G8" s="64" t="s">
+      <c r="G8" s="67" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="66"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
+      <c r="A9" s="69"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
       <c r="D9" s="26" t="s">
         <v>409</v>
       </c>
@@ -5362,7 +5362,7 @@
       <c r="F9" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="66"/>
+      <c r="G9" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5435,7 +5435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{505CC7DF-19BD-48FE-8793-8EDD6B68F86E}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -5467,13 +5467,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A2" s="69">
+      <c r="A2" s="61">
         <v>1</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="61" t="s">
         <v>380</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="61" t="s">
         <v>474</v>
       </c>
       <c r="D2" s="26" t="s">
@@ -5484,9 +5484,9 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A3" s="69"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
       <c r="D3" s="26" t="s">
         <v>388</v>
       </c>
@@ -5495,9 +5495,9 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
       <c r="D4" s="26" t="s">
         <v>389</v>
       </c>
@@ -5506,9 +5506,9 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A5" s="69"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
       <c r="D5" s="26" t="s">
         <v>390</v>
       </c>
@@ -5551,13 +5551,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="69">
+      <c r="A8" s="61">
         <v>4</v>
       </c>
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="61" t="s">
         <v>380</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="61" t="s">
         <v>475</v>
       </c>
       <c r="D8" s="26" t="s">
@@ -5568,9 +5568,9 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="69"/>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
       <c r="D9" s="26" t="s">
         <v>479</v>
       </c>
@@ -50518,13 +50518,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<titus xmlns="http://schemas.titus.com/TitusProperties/">
-  <TitusGUID xmlns="">13415162-7c7e-4690-b9c0-c3277ee45481</TitusGUID>
-  <TitusMetadata xmlns="">eyJucyI6Imh0dHA6XC9cL3d3dy50aXR1cy5jb21cL25zXC9UVExUSVRVUyIsInByb3BzIjpbeyJuIjoiQ2xhc3NpZmljYXRpb24iLCJ2YWxzIjpbeyJ2YWx1ZSI6IkNvbmZpZGVudGlhbCJ9XX1dfQ==</TitusMetadata>
-</titus>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e4be601-d1eb-4833-8855-b10f66ff5f6e">
@@ -50541,16 +50534,14 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<titus xmlns="http://schemas.titus.com/TitusProperties/">
+  <TitusGUID xmlns="">13415162-7c7e-4690-b9c0-c3277ee45481</TitusGUID>
+  <TitusMetadata xmlns="">eyJucyI6Imh0dHA6XC9cL3d3dy50aXR1cy5jb21cL25zXC9UVExUSVRVUyIsInByb3BzIjpbeyJuIjoiQ2xhc3NpZmljYXRpb24iLCJ2YWxzIjpbeyJ2YWx1ZSI6IkNvbmZpZGVudGlhbCJ9XX1dfQ==</TitusMetadata>
+</titus>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004FF20ACD2ACDAF4B84EF9300C67B2159" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0c36ae600cfc71a682facb2fe9ea4a9f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e4be601-d1eb-4833-8855-b10f66ff5f6e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="efc49a46b45dba0aa538c93634f147fb" ns2:_="">
     <xsd:import namespace="1e4be601-d1eb-4833-8855-b10f66ff5f6e"/>
@@ -50748,16 +50739,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F2F5D10-2444-49FE-A77C-61C4138B612E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.titus.com/TitusProperties/"/>
-    <ds:schemaRef ds:uri=""/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{955FB65A-AA4A-4AC7-ABF5-73D99F3CD624}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -50767,15 +50758,16 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40670A2F-7A86-4261-8824-D7A1D690F431}">
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F2F5D10-2444-49FE-A77C-61C4138B612E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.titus.com/TitusProperties/"/>
+    <ds:schemaRef ds:uri=""/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18647F7B-AB5F-435B-9FBB-244B71312A6F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -50791,4 +50783,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40670A2F-7A86-4261-8824-D7A1D690F431}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>